--- a/data/train/GPTchat_positive_sentences.xlsx
+++ b/data/train/GPTchat_positive_sentences.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasperhewitt/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20E04489-2AD6-0849-8CAA-70B3D62BAD57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2483378-B96E-F044-AA56-182AB44B9960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3700" yWindow="1100" windowWidth="38400" windowHeight="20460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="20460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="521">
   <si>
     <t xml:space="preserve">這個政治人物對我們國家的發展有明顯的貢獻。
 </t>
@@ -2083,9 +2083,6 @@
   </si>
   <si>
     <t xml:space="preserve"> 他通過許多具有創新性與勇氣的行動，使危機隱去而安定光明歸來。</t>
-  </si>
-  <si>
-    <t>label</t>
   </si>
   <si>
     <t>text</t>
@@ -2454,18 +2451,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B521"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="B1" s="1" t="s">
         <v>520</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
